--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3579C26A-C776-4E0D-9130-407A567DCCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EFC889-708D-489F-B66F-9C71A4C8030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="in" sheetId="1" r:id="rId1"/>
-    <sheet name="Schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="Pivot Table" sheetId="2" r:id="rId3"/>
+    <sheet name="Applications" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule_v2" sheetId="4" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot Table" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$X$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applications!$A$1:$X$40</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5296" r:id="rId4"/>
+    <pivotCache cacheId="10018" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="480">
   <si>
     <t>ID</t>
   </si>
@@ -686,6 +687,9 @@
   </si>
   <si>
     <t>Web applications</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
   </si>
   <si>
     <t>JZ</t>
@@ -1245,16 +1249,25 @@
     <t>15/02/2023</t>
   </si>
   <si>
+    <t>12:30-13:30</t>
+  </si>
+  <si>
     <t>Lunch</t>
   </si>
   <si>
-    <t>14:00-14:30</t>
-  </si>
-  <si>
-    <t>Intro</t>
-  </si>
-  <si>
-    <t>14:30-15:30</t>
+    <t>13:30-13:45</t>
+  </si>
+  <si>
+    <t>Welcome to workshop and Warwick/campus, housekeeping</t>
+  </si>
+  <si>
+    <t>Organising committee representatives</t>
+  </si>
+  <si>
+    <t>The University of Warwick</t>
+  </si>
+  <si>
+    <t>13:45-14:45</t>
   </si>
   <si>
     <t>Keynote</t>
@@ -1263,41 +1276,40 @@
     <t>Martin O’Reilly</t>
   </si>
   <si>
-    <t>The Data Safe Haven </t>
-  </si>
-  <si>
-    <t>Break</t>
+    <t>The Data Safe Haven</t>
+  </si>
+  <si>
+    <t>14:45-15:30</t>
+  </si>
+  <si>
+    <t>Break  &amp; Poster Session 1</t>
+  </si>
+  <si>
+    <t>16:30-16:00</t>
+  </si>
+  <si>
+    <t>Focus session 1</t>
+  </si>
+  <si>
+    <t>Data, Compute &amp; Analysis Infrastructure </t>
+  </si>
+  <si>
+    <t>TBC: was a lightning talk</t>
   </si>
   <si>
     <t>16:00-16:30</t>
   </si>
   <si>
-    <t>Focus session 1</t>
+    <t xml:space="preserve">Supporting medical research and practice </t>
+  </si>
+  <si>
+    <t>Statisticians embarking into the realm of Research Software Engineering</t>
+  </si>
+  <si>
+    <t>This presentation will describe the Complex Reviews Support Unitâ€™s (CRSU) 5-year journey into the world of Research Software Engineering (RSE). The initial aim of the CRSU was to support researchers conducting complex reviews, such as network meta-analysis and meta-analysis of diagnostic test accuracy studies, using the expertise of its members. Many researchers did not have the knowledge and proficiency to carry out such analyses with the standard statistical software â€“ a gap which the CRSU recognised could be filled. Through attending training courses and online material, initial versions of free interactive web-apps were created to help researchers conduct such complex reviews. Over the five years since those initial versions, the apps have grown, in size and popularity, and are used globally. The team have learnt more about UI and data visualisation to help improve the userâ€™s experience. Through user support feedback emails, the team have improved the apps to the usersâ€™ needs. During development of a spin-off app, the CRSU even collaborated with a software engineer to incorporate the use of a Raspberry Pi (micro-computer). Over the last 5 years, the CRSU team have certainly gained experience in RSE, but looking forward, they are aware that more needs to be done in terms of good practice and sustainability.</t>
   </si>
   <si>
     <t>16:30-17:00</t>
-  </si>
-  <si>
-    <t>17:00-17:30</t>
-  </si>
-  <si>
-    <t>TBC: was a lightning talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting medical research and practice </t>
-  </si>
-  <si>
-    <t>Statisticians embarking into the realm of Research Software Engineering</t>
-  </si>
-  <si>
-    <t>This presentation will describe the Complex Reviews Support Unitâ€™s (CRSU) 5-year journey into the world of Research Software Engineering (RSE). The initial aim of the CRSU was to support researchers conducting complex reviews, such as network meta-analysis and meta-analysis of diagnostic test accuracy studies, using the expertise of its members. Many researchers did not have the knowledge and proficiency to carry out such analyses with the standard statistical software â€“ a gap which the CRSU recognised could be filled. Through attending training courses and online material, initial versions of free interactive web-apps were created to help researchers conduct such complex reviews. Over the five years since those initial versions, the apps have grown, in size and popularity, and are used globally. The team have learnt more about UI and data visualisation to help improve the userâ€™s experience. Through user support feedback emails, the team have improved the apps to the usersâ€™ needs. During development of a spin-off app, the CRSU even collaborated with a software engineer to incorporate the use of a Raspberry Pi (micro-computer). Over the last 5 years, the CRSU team have certainly gained experience in RSE, but looking forward, they are aware that more needs to be done in terms of good practice and sustainability.</t>
-  </si>
-  <si>
-    <t>Putting a prognostic model into practice in a healthcare context</t>
-  </si>
-  <si>
-    <t>There is much excitement about the potential of prognostic modelling (both machine learning and standard regression modelling) to improve patient outcomes and efficiency of hospitals. However, out of the large number of models published only a small number are implemented and have an impact. This talk describes the journey to try and put one such model into practice and the barriers encountered along the way.
-Uveal melanoma (UM) is the most common form of eye cancer and approximately 600 people are diagnosed every year in the UK. Following primary treatment the guidelines recommend identifying high-risk patients and enrolling these patients into a surveillance programme, but does not specify how high-risk should be defined. An externally validated prognostic model had previously been developed but usage among clinical staff was not standardised and it was unclear how it compared to existing methods of risk stratification. This project collaborated with clinical staff to develop guidelines for use and an improved web app. Future challenges include getting the web app registered as a medical device and ensuring that the appropriateness of the model and guidelines are reassessed in light of any changes in the care pathway or patient population.</t>
   </si>
   <si>
     <t>Developing Infrastructure and its importance to Scientific Output</t>
@@ -1307,25 +1319,28 @@
 This talk focusses on how we built our infrastructure using the cloud technology available. We will cover the problems and challenges we faced and how we overcame them. We will discuss how the Franklin aims to move towards automated processing and how we are implementing the technology to make that a possibility. We will discuss some initial results of work that was achieved using this infrastructure.</t>
   </si>
   <si>
-    <t>17:30-18:30</t>
-  </si>
-  <si>
-    <t>18:30-20:00</t>
-  </si>
-  <si>
-    <t>Dinner</t>
+    <t>17:00-19:00</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner </t>
   </si>
   <si>
     <t>16/02/2023</t>
   </si>
   <si>
-    <t>9:00-9:30</t>
+    <t>09:00-09:30</t>
   </si>
   <si>
     <t>Focus session 2</t>
   </si>
   <si>
-    <t>9:30-10:00</t>
+    <t>09:30-10:00</t>
   </si>
   <si>
     <t>The devil is in the detail: Cohort building and data preparation in secure trusted research environments</t>
@@ -1341,6 +1356,21 @@
   </si>
   <si>
     <t>Scientists in academic and government institutions often use high-security data like medical, finance, or census records to answer important research questions. Unlike experimental data, these data have legal guardians and a procedure to decide who may use the data and for what purpose. Data governance prioritises confidentiality and requires that raw data, linkage, extraction, cleaning, and anonymisation are done separately by diverse data custodians. Researchers are only then given access to a minimal, processed, anonymised dataset within a secure environment. However, little or no information is provided to researchers on the methods used to create their datasets. The opportunity costs of this strategy are an increased risk of undetected error propagation and research that is difficult or impossible to evaluate. Thus, the risks to research quality due to the opacity of data handling are as large as the risks of privacy breaches. Within our local Data Safe Haven (an NHS trusted research environment) we formalised workflows into a machine-readable ontology and knowledge graph. We piloted automated reporting that both preserves privacy and allows researchers to inspect the provenance and quality control of the data generating process. We believe data provenance reporting should be mandated for research using public data.</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>Focus session 3</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
   </si>
   <si>
     <t>Web scraping and a bit of Natural Language Processing with R</t>
@@ -1351,53 +1381,19 @@
 The demo will show you how can we extract reviews from a service like Google Maps and then classify the comments based on their contents, to determine what is the overall feeling of those leaving the reviews (is people leaving reviews only when they are discontent? Can we learn anything from the comments?).</t>
   </si>
   <si>
-    <t>10:30-11:00</t>
-  </si>
-  <si>
-    <t>Break </t>
-  </si>
-  <si>
-    <t>11:00-12:00</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Marion Weinzierl, Mike Katell</t>
-  </si>
-  <si>
-    <t>12:00-14:00</t>
-  </si>
-  <si>
-    <t>LUNCH </t>
-  </si>
-  <si>
-    <t>14:00-15:00</t>
-  </si>
-  <si>
-    <t>Emma Barnes (chair), Tomas Lazauskas,
-Matt Ismail</t>
-  </si>
-  <si>
-    <t>Cloud vs Local Infrastructure</t>
-  </si>
-  <si>
-    <t>15:00-15:30</t>
-  </si>
-  <si>
-    <t>Walkthrough</t>
-  </si>
-  <si>
-    <t>How to use Baskerville Portal and the benefits it can provide to non-traditional HPC users </t>
-  </si>
-  <si>
-    <t>15:30-16:00</t>
-  </si>
-  <si>
-    <t>Focus session 3</t>
+    <t>13:30-14:00</t>
+  </si>
+  <si>
+    <t>Focus session 4</t>
   </si>
   <si>
     <t xml:space="preserve">Tools, software, and pipelines developed for applications in data &amp; AI </t>
+  </si>
+  <si>
+    <t>14:00-14:30</t>
+  </si>
+  <si>
+    <t>14:30-15:00</t>
   </si>
   <si>
     <t>EpiGraphDB-ASQ as a natural language interface to biomedical knowledge graph</t>
@@ -1411,6 +1407,15 @@
 4. Harmonisation and prioritisation of biomedical evidence in the knowledge graph in order to annotate, interrogate, and triangulate the identified claims</t>
   </si>
   <si>
+    <t>15:00-15:30</t>
+  </si>
+  <si>
+    <t>15:30-16:00</t>
+  </si>
+  <si>
+    <t>Focus session 5</t>
+  </si>
+  <si>
     <t>Establishing a process for identifying mouse mutant lines with full datasets submitted to the Data Coordination Centre for the International Mouse Phenotyping Consortium</t>
   </si>
   <si>
@@ -1423,46 +1428,143 @@
     <t>The subject of data quality and testing has been an important topic in geoinformation.  Great efforts and advancements have been made in geospatial science, methods and techniques.  However, there is a lack of work to draw all relevant matters together to establish data quality testing as a subject of science, so that robust technological development can be made and applications can be used with confidence.  This paper introduces data testing and quality assessment as a subject of science, technology and applications.  It describes how scientific approach and methods can be used for technological development and practical applications.  It draws together new advancement in data quality testing practice to show how new scientific approach and methods can be applied to transform the practice of data testing, quantifying quality and system engineering and technological development can be achieved and authoritative data testing work can made for gaining the confidence of data quality testing and assessment.  This paper presents with practical examples for advancing our understanding of data quality testing and assessment as a formal science and how the output of data quality testing can be used for decision making, management purposes in practice, data quality improvement and data product assurance practices.  It believes that this paper is of interest to a widespread readers and professionals working in the field of GIS, geospatial science and engineering and geoinformation.  This particularly helps those who are working in data quality testing and data product assurance to gain confidence from others.</t>
   </si>
   <si>
+    <t>17/02/2023</t>
+  </si>
+  <si>
+    <t>Walkthrough 1</t>
+  </si>
+  <si>
+    <t>How to use Baskerville Portal and the benefits it can provide to non-traditional HPC users </t>
+  </si>
+  <si>
+    <t>Walkthrough 2</t>
+  </si>
+  <si>
+    <t>09:30-9:40</t>
+  </si>
+  <si>
+    <t>Lightning Talks</t>
+  </si>
+  <si>
+    <t>09:40-09:50</t>
+  </si>
+  <si>
+    <t>09:50-10:00</t>
+  </si>
+  <si>
+    <t>10:00-10:10</t>
+  </si>
+  <si>
+    <t>10:10-10:20</t>
+  </si>
+  <si>
+    <t>10:20-10:30</t>
+  </si>
+  <si>
+    <t>ETL Hell: Lessons learnt from developing data processing pipelines for remote air quality instrumentation</t>
+  </si>
+  <si>
+    <t>I've been involved in several data processing pipelines of air quality data from various remote sources both around the UK and internationally. All of these projects have subtly different requirements, necessitating the use of a multitude of technologies to transfer the data into some form of remote storage, in addition to applying any necessary pre-processing or additional steps such as visualisations or sending diagnostic notifications. In addition to the technical requirements, there are also user-centric requirements, such as certain operating restrictions on the instrument PC, the need for a specific Cloud storage option, or for the data to be made accessible in a certain format. Choosing an appropriate technology suite therefore requires managing the trade-off between a solution that is easy to work with from an admin perspective, but is also accessible to end-users. In this talk I summarise the various tools I have employed for these types of problems and describe their relative strengths and weaknesses.</t>
+  </si>
+  <si>
+    <t>10:30-11:30</t>
+  </si>
+  <si>
+    <t>Break  &amp; Poster Session 2</t>
+  </si>
+  <si>
+    <t>11:30-12:30</t>
+  </si>
+  <si>
+    <t>Panel 1</t>
+  </si>
+  <si>
+    <t>Marion Weinzierl, Mike Katell</t>
+  </si>
+  <si>
+    <t>Panel 2</t>
+  </si>
+  <si>
+    <t>Emma Barnes (chair), Tomas Lazauskas,
+Matt Ismail</t>
+  </si>
+  <si>
+    <t>Cloud vs Local Infrastructure</t>
+  </si>
+  <si>
+    <t>Focus session 6</t>
+  </si>
+  <si>
+    <t>What can R do (and is doing) for AI</t>
+  </si>
+  <si>
+    <t>14:30-15:30</t>
+  </si>
+  <si>
+    <t>Kirstie Whitaker</t>
+  </si>
+  <si>
+    <t>Revolutionising Team Science: RSEs, Data Stewards, RAMs, Community Managers and beyond </t>
+  </si>
+  <si>
+    <t>Farewell</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>The Data Safe Haven: An open, scalable, reproducibly deployable, cloud-based Trusted Research Environment for working safely with sensitive data</t>
+  </si>
+  <si>
+    <t>Researchers often need to analyse sensitive data in order to answer important questions for health, government and society. Balancing the need to protect individual privacy and commercial confidentiality with the need to ensure that reliable insights can be made using sensitive data is challenging, and Trusted Research Environments (TREs) that provide secure analysis environments for working  with sensitive data are a key part of striking this balance.
+The Alan Turing Institute has recently open-sourced its Data Safe Haven, a secure, scalable, reproducibly deployable, cloud-based TRE that we have been using for the lat 4 years to support our researchers in working safely and productively with sensitive data. By openly publishing the code and documentation required to deploy, configure and manage a Data Safe Haven instance, we make it easier for others to deploy their own Trusted Research Environments, reducing the effort required to support their researchers in working safely with sensitive data.
+We've also been working closely with the wider community to better align work in this area, initially on the development of the information governance principals and design choices for our Data Safe Haven, which we published in 2019. More recently, we've been working closely with the DARE UK programme to define common requirements for Trusted Research Environments and have co-founded the RSE TRE Community, bringing together those who are developing and deploying TREs to more closely co-ordinate our work.
+In this talk we will give an overview of the Turing's Data Safe Haven and the information governance and design principals behind it, as well as the work we have been doing with the wider community to develop a common set of TRE requirements and to co-ordinate across organisations on the development, deployment and management of TREs.</t>
+  </si>
+  <si>
+    <t>17:00-17:30</t>
+  </si>
+  <si>
+    <t>3rd talk  ID 568876112 dropped out</t>
+  </si>
+  <si>
+    <t>17:30-18:30</t>
+  </si>
+  <si>
+    <t>18:30-20:00</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>9:00-9:30</t>
+  </si>
+  <si>
+    <t>9:30-10:00</t>
+  </si>
+  <si>
+    <t>Break </t>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
+    <t>LUNCH </t>
+  </si>
+  <si>
+    <t>14:00-15:00</t>
+  </si>
+  <si>
+    <t>Walkthrough</t>
+  </si>
+  <si>
     <t>Dinner </t>
-  </si>
-  <si>
-    <t>17/02/2023</t>
-  </si>
-  <si>
-    <t>09:00-09:30</t>
-  </si>
-  <si>
-    <t>09:30-9:40</t>
-  </si>
-  <si>
-    <t>Lightning Talks</t>
-  </si>
-  <si>
-    <t>09:40-09:50</t>
-  </si>
-  <si>
-    <t>09:50-10:00</t>
-  </si>
-  <si>
-    <t>10:00-10:10</t>
-  </si>
-  <si>
-    <t>10:10-10:20</t>
-  </si>
-  <si>
-    <t>10:20-10:30</t>
-  </si>
-  <si>
-    <t>ETL Hell: Lessons learnt from developing data processing pipelines for remote air quality instrumentation</t>
-  </si>
-  <si>
-    <t>I've been involved in several data processing pipelines of air quality data from various remote sources both around the UK and internationally. All of these projects have subtly different requirements, necessitating the use of a multitude of technologies to transfer the data into some form of remote storage, in addition to applying any necessary pre-processing or additional steps such as visualisations or sending diagnostic notifications. In addition to the technical requirements, there are also user-centric requirements, such as certain operating restrictions on the instrument PC, the need for a specific Cloud storage option, or for the data to be made accessible in a certain format. Choosing an appropriate technology suite therefore requires managing the trade-off between a solution that is easy to work with from an admin perspective, but is also accessible to end-users. In this talk I summarise the various tools I have employed for these types of problems and describe their relative strengths and weaknesses.</t>
-  </si>
-  <si>
-    <t>Kirstie Whitaker</t>
-  </si>
-  <si>
-    <t>Revolutionising Team Science: RSEs, Data Stewards, RAMs, Community Managers and beyond </t>
   </si>
   <si>
     <t>Recompte de Session</t>
@@ -1478,7 +1580,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,8 +1745,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1824,6 +1946,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1941,7 +2069,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1984,8 +2112,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2009,50 +2138,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Èmfasi1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Èmfasi2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Èmfasi3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Èmfasi4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Èmfasi5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Èmfasi6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Èmfasi1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Èmfasi2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Èmfasi3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Èmfasi4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Èmfasi5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Èmfasi6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Èmfasi1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Èmfasi2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Èmfasi3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Èmfasi4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Èmfasi5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Èmfasi6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bé" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Càlcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cel·la de comprovació" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Cel·la enllaçada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Èmfasi1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Èmfasi2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Èmfasi3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Èmfasi4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Èmfasi5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Èmfasi6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecte" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Resultat" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Text d'advertiment" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Text explicatiu" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Títol" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Títol 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Títol 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Títol 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Títol 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2070,7 +2207,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="44910.38894409722" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{03FD2700-F38D-4B2A-B740-94FE353EDCC3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:X1048576" sheet="in"/>
+    <worksheetSource ref="A1:X1048576" sheet="Applications"/>
   </cacheSource>
   <cacheFields count="23">
     <cacheField name="ID" numFmtId="0">
@@ -3171,7 +3308,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="5296" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="10018" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3579,21 +3716,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="J16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31:Q40"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="I8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="101.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="220.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1">
@@ -3683,7 +3834,7 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
@@ -3742,7 +3893,7 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G3" t="s">
@@ -3804,7 +3955,7 @@
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G4" t="s">
@@ -3860,7 +4011,7 @@
       <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G5" t="s">
@@ -3978,7 +4129,7 @@
       <c r="E7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>74</v>
       </c>
       <c r="G7" t="s">
@@ -4037,7 +4188,7 @@
       <c r="E8" t="s">
         <v>82</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>83</v>
       </c>
       <c r="G8" t="s">
@@ -4105,7 +4256,7 @@
       <c r="J9" t="s">
         <v>93</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="12" t="s">
         <v>94</v>
       </c>
       <c r="P9" s="5" t="s">
@@ -4143,7 +4294,7 @@
       <c r="E10" t="s">
         <v>97</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="G10" t="s">
@@ -4158,7 +4309,7 @@
       <c r="J10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="12" t="s">
         <v>94</v>
       </c>
       <c r="P10" s="5" t="s">
@@ -4202,7 +4353,7 @@
       <c r="E11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G11" t="s">
@@ -4217,7 +4368,7 @@
       <c r="J11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="12" t="s">
         <v>94</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -4385,7 +4536,7 @@
       <c r="E14" t="s">
         <v>135</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="11" t="s">
         <v>136</v>
       </c>
       <c r="G14" t="s">
@@ -4456,7 +4607,7 @@
       <c r="E15" t="s">
         <v>147</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="11" t="s">
         <v>148</v>
       </c>
       <c r="G15" t="s">
@@ -4527,7 +4678,7 @@
       <c r="E16" t="s">
         <v>158</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="11" t="s">
         <v>159</v>
       </c>
       <c r="G16" t="s">
@@ -4592,7 +4743,7 @@
       <c r="E17" t="s">
         <v>169</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G17" t="s">
@@ -4725,7 +4876,7 @@
       <c r="E19" t="s">
         <v>188</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G19" t="s">
@@ -4793,7 +4944,7 @@
       <c r="E20" t="s">
         <v>198</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="11" t="s">
         <v>199</v>
       </c>
       <c r="G20" t="s">
@@ -4824,7 +4975,7 @@
         <v>196</v>
       </c>
       <c r="Q20" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="R20" t="s">
         <v>32</v>
@@ -4856,40 +5007,40 @@
         <v>44907.506944444445</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" t="s">
         <v>209</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
         <v>119</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>196</v>
@@ -4918,49 +5069,49 @@
         <v>568593692</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" t="s">
         <v>219</v>
       </c>
+      <c r="F22" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
         <v>119</v>
       </c>
       <c r="M22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q22" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="R22" t="s">
         <v>71</v>
@@ -4989,43 +5140,43 @@
         <v>44907.576388888891</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" t="s">
         <v>229</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>230</v>
+      </c>
       <c r="G23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
         <v>119</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23" t="s">
         <v>123</v>
@@ -5037,7 +5188,7 @@
         <v>32</v>
       </c>
       <c r="T23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U23" t="s">
         <v>34</v>
@@ -5057,43 +5208,43 @@
         <v>44907.630555555559</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
         <v>119</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q24" t="s">
         <v>123</v>
@@ -5105,7 +5256,7 @@
         <v>32</v>
       </c>
       <c r="T24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U24" t="s">
         <v>36</v>
@@ -5128,25 +5279,25 @@
         <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" t="s">
         <v>247</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="G25" t="s">
         <v>108</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
         <v>119</v>
@@ -5155,13 +5306,13 @@
         <v>164</v>
       </c>
       <c r="N25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q25" t="s">
         <v>123</v>
@@ -5196,40 +5347,40 @@
         <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
         <v>119</v>
       </c>
       <c r="M26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q26" t="s">
         <v>123</v>
@@ -5264,43 +5415,43 @@
         <v>44907.679861111108</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F27" t="s">
         <v>264</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
         <v>119</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q27" t="s">
         <v>123</v>
@@ -5338,37 +5489,37 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
-      </c>
-      <c r="F28" t="s">
         <v>271</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
         <v>119</v>
       </c>
       <c r="M28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s">
         <v>167</v>
@@ -5409,43 +5560,43 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" t="s">
         <v>280</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="G29" t="s">
         <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s">
         <v>141</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R29" t="s">
         <v>32</v>
@@ -5480,40 +5631,40 @@
         <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>289</v>
-      </c>
-      <c r="F30" t="s">
         <v>290</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>291</v>
+      </c>
       <c r="G30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s">
         <v>156</v>
@@ -5528,7 +5679,7 @@
         <v>32</v>
       </c>
       <c r="T30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U30" t="s">
         <v>34</v>
@@ -5548,34 +5699,34 @@
         <v>44907.70208333333</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
         <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
+        <v>307</v>
+      </c>
+      <c r="L31" t="s">
         <v>306</v>
       </c>
-      <c r="L31" t="s">
-        <v>305</v>
-      </c>
       <c r="Q31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R31" t="s">
         <v>32</v>
@@ -5584,13 +5735,13 @@
         <v>32</v>
       </c>
       <c r="T31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U31" t="s">
         <v>34</v>
       </c>
       <c r="V31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W31" t="s">
         <v>35</v>
@@ -5607,34 +5758,34 @@
         <v>44907.43472222222</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>309</v>
-      </c>
-      <c r="F32" t="s">
         <v>310</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="G32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s">
         <v>46</v>
       </c>
       <c r="Q32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R32" t="s">
         <v>32</v>
@@ -5646,7 +5797,7 @@
         <v>36</v>
       </c>
       <c r="W32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X32" t="s">
         <v>36</v>
@@ -5660,34 +5811,34 @@
         <v>44754.570138888892</v>
       </c>
       <c r="D33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G33" t="s">
         <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R33" t="s">
         <v>112</v>
@@ -5719,31 +5870,31 @@
         <v>44724.813194444447</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
         <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R34" t="s">
         <v>112</v>
@@ -5769,34 +5920,34 @@
         <v>44693.664583333331</v>
       </c>
       <c r="D35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R35" t="s">
         <v>112</v>
@@ -5822,34 +5973,34 @@
         <v>44693.630555555559</v>
       </c>
       <c r="D36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
         <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R36" t="s">
         <v>44</v>
@@ -5858,7 +6009,7 @@
         <v>32</v>
       </c>
       <c r="T36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>
@@ -5878,31 +6029,31 @@
         <v>44693.465277777781</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E37" t="s">
-        <v>340</v>
-      </c>
-      <c r="F37" t="s">
         <v>341</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>342</v>
+      </c>
       <c r="G37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I37" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R37" t="s">
         <v>112</v>
@@ -5928,31 +6079,31 @@
         <v>44693.397222222222</v>
       </c>
       <c r="D38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E38" t="s">
-        <v>347</v>
-      </c>
-      <c r="F38" t="s">
         <v>348</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="G38" t="s">
         <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J38" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q38" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R38" t="s">
         <v>32</v>
@@ -5961,7 +6112,7 @@
         <v>32</v>
       </c>
       <c r="T38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U38" t="s">
         <v>34</v>
@@ -5978,37 +6129,37 @@
         <v>568602080</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
-      </c>
-      <c r="F39" t="s">
         <v>355</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>356</v>
       </c>
       <c r="G39" t="s">
         <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J39" t="s">
         <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
         <v>33</v>
       </c>
       <c r="Q39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R39" t="s">
         <v>32</v>
@@ -6023,7 +6174,7 @@
         <v>34</v>
       </c>
       <c r="V39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W39" t="s">
         <v>35</v>
@@ -6037,37 +6188,37 @@
         <v>568535453</v>
       </c>
       <c r="B40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E40" t="s">
-        <v>360</v>
-      </c>
-      <c r="F40" t="s">
         <v>361</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>362</v>
       </c>
       <c r="G40" t="s">
         <v>108</v>
       </c>
       <c r="H40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q40" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R40" t="s">
         <v>112</v>
@@ -6086,45 +6237,72 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X38" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:X30">
-      <sortCondition ref="P2:P38"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:X40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X40">
     <sortCondition ref="K2:K40"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F29" r:id="rId1" xr:uid="{B9A9C34A-FDDB-414B-800D-DD4BB441FBCC}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{A2339D86-6779-4B01-BE8A-2242E64718AA}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{1304EA9A-9321-408D-8FA5-ABABB6B6F0F7}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{EA930283-8216-4226-A107-6E4E0E9DD0C5}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{2D827B48-AAA4-47BD-B491-D5B5473EC58F}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{D1E9BEAD-FBF4-428D-896F-5A9FAF023117}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{83D778AB-F05E-42EC-83E8-B90EE99D2C46}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{950E7A6D-70F9-4A50-9717-C264B19C6258}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{EE8DBDE7-2C13-4A36-A265-661718018FD9}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{C94EC53D-A109-4122-87FB-F24E41316805}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{D35B04D3-CCD5-4CDA-B591-44615541D29B}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{4421A03C-D456-4874-9AB4-A2943CA573E5}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{79EF74B2-DBD1-4F7D-8038-C1A954FBF9DE}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{2BCD0D64-492E-4E68-B42C-69E54BC309A7}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{48FA691D-CCDF-49D2-B95C-3588ED777F6D}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{05D0C100-3CC1-4716-9D90-9AE996868C73}"/>
+    <hyperlink ref="F23" r:id="rId17" xr:uid="{F5F74AE4-8E47-4330-8EA2-B2F51760AEDB}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{57F5294D-0092-45A8-ACC6-34C18A990EE0}"/>
+    <hyperlink ref="F27" r:id="rId19" xr:uid="{374D0167-35A5-4EEC-8135-753CE38A5A0E}"/>
+    <hyperlink ref="F28" r:id="rId20" xr:uid="{15B914D4-AFEA-4E47-AB20-32E1EE1B2332}"/>
+    <hyperlink ref="F32" r:id="rId21" xr:uid="{C7F0A1CF-73E7-429F-BAF7-2E4F95E81921}"/>
+    <hyperlink ref="F37" r:id="rId22" xr:uid="{C1FBCFCC-CE9B-4ACF-BF6B-2E28CD5BB17F}"/>
+    <hyperlink ref="F38" r:id="rId23" xr:uid="{7B8D6979-3165-48D5-B5D7-E88E09777086}"/>
+    <hyperlink ref="F39" r:id="rId24" xr:uid="{63B02A44-88B6-418F-80B2-7B832AAFC8FD}"/>
+    <hyperlink ref="F40" r:id="rId25" xr:uid="{C4A0C645-DFB2-42A9-B347-68F4F3915CB8}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{CAC4F35E-92B7-4424-B55A-3456A844A237}"/>
+    <hyperlink ref="F7" r:id="rId27" xr:uid="{7512B95A-A263-4411-8915-E8322BA52BE9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D31F8-1506-4961-85FB-505E4C368EFB}">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FC7663-D29B-47D4-8AE2-312759209D09}">
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:A43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="G33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="7"/>
-    <col min="3" max="3" width="15.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="75.140625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="92.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -6133,974 +6311,1081 @@
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="7">
-        <v>569338039</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>108</v>
+        <v>388</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6">
+        <v>568593183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>129</v>
+      <c r="I6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>133</v>
+        <v>388</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="E7" s="7">
-        <v>568955164</v>
+        <v>569241216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>140</v>
+        <v>393</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8">
-        <v>568593183</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
+        <v>388</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="7">
+        <v>569356062</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="7">
-        <v>569241216</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E10" s="7">
-        <v>568876112</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>391</v>
+        <v>400</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>383</v>
+        <v>403</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="E11" s="7">
-        <v>569356062</v>
+        <v>569367591</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>393</v>
+        <v>104</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="7">
+        <v>569447317</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13">
+        <v>569043532</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="7">
-        <v>569367591</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="E15" s="7">
-        <v>569447317</v>
+        <v>568593692</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>402</v>
+        <v>104</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16">
-        <v>569043532</v>
-      </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" t="s">
-        <v>160</v>
+        <v>228</v>
+      </c>
+      <c r="E16" s="7">
+        <v>569361525</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>405</v>
+        <v>104</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>227</v>
+        <v>413</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="E17" s="7">
-        <v>568593692</v>
+        <v>569364020</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>104</v>
+        <v>416</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>223</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="7">
-        <v>569361525</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>233</v>
+        <v>375</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="7">
-        <v>569364020</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>420</v>
+      </c>
+      <c r="E19">
+        <v>569324797</v>
+      </c>
+      <c r="F19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>406</v>
+        <v>104</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>407</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D20" s="9"/>
+        <v>419</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20">
+        <v>569371846</v>
+      </c>
+      <c r="F20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="F21" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E21">
+        <v>569366214</v>
+      </c>
+      <c r="F21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" t="s">
+        <v>266</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>131</v>
+        <v>423</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>414</v>
+        <v>402</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="D22" s="9"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>415</v>
+        <v>402</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="F23" s="10" t="s">
-        <v>416</v>
+        <v>427</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23">
+        <v>569370434</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" t="s">
+        <v>149</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>417</v>
+        <v>104</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>418</v>
+        <v>402</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D24" s="9"/>
+        <v>427</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="E24">
-        <v>569364101</v>
+        <v>569369351</v>
       </c>
       <c r="F24" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>283</v>
+        <v>428</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>421</v>
+        <v>402</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>427</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25">
+        <v>569120288</v>
+      </c>
+      <c r="F25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="E26">
-        <v>569324797</v>
-      </c>
-      <c r="F26" t="s">
-        <v>246</v>
-      </c>
-      <c r="G26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>250</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="E27">
-        <v>569371846</v>
-      </c>
-      <c r="F27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>259</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>385</v>
+        <v>432</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>423</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28">
-        <v>569366214</v>
+        <v>569364101</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G28" t="s">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>425</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>382</v>
+        <v>432</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D29" t="s">
-        <v>156</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29">
-        <v>569370434</v>
+        <v>569120288</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>104</v>
+        <v>430</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>152</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>156</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D30" s="9"/>
       <c r="E30">
-        <v>569369351</v>
+        <v>569337667</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>427</v>
+        <v>104</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>156</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D31" s="9"/>
       <c r="E31">
-        <v>569120288</v>
+        <v>569245627</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>428</v>
+        <v>104</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>429</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="D32" s="9"/>
+      <c r="E32">
+        <v>569243234</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D33" s="9"/>
+      <c r="E33">
+        <v>568768514</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
-        <v>569120288</v>
+        <v>568464393</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>428</v>
+        <v>104</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>429</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35">
-        <v>569337667</v>
+        <v>569434163</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>29</v>
+        <v>443</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36">
-        <v>569245627</v>
-      </c>
-      <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37">
-        <v>569243234</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
+      <c r="F37" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38">
-        <v>568768514</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
+      <c r="F38" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>61</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39">
-        <v>568464393</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>439</v>
+        <v>432</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40">
-        <v>569434163</v>
-      </c>
-      <c r="F40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" t="s">
-        <v>84</v>
+        <v>453</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="7">
+        <v>569338039</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>441</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>408</v>
+        <v>432</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D41" s="9"/>
+        <v>453</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="7">
+        <v>568955164</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>410</v>
+        <v>432</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>413</v>
+      <c r="B43" s="15">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="D43" s="9"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1">
+      <c r="H48" s="13"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="55" spans="2:9" ht="15" customHeight="1">
+      <c r="C55" s="9"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="58" spans="2:9" ht="15" customHeight="1">
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="2:9" ht="15" customHeight="1">
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="2:9" ht="15" customHeight="1">
+      <c r="C60" s="9"/>
+    </row>
+    <row r="64" spans="2:9" ht="15" customHeight="1">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="69" spans="2:4" ht="15" customHeight="1">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="73" spans="2:4" ht="15" customHeight="1">
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="2:4" ht="15" customHeight="1">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="2:4" ht="15" customHeight="1">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="2:4" ht="15" customHeight="1">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="2:4" ht="15" customHeight="1">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="2:4" ht="15" customHeight="1">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="85" spans="2:4" ht="15" customHeight="1">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="87" spans="2:4" ht="15" customHeight="1">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -7109,10 +7394,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D31F8-1506-4961-85FB-505E4C368EFB}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="155.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="7">
+        <v>569338039</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="7">
+        <v>568955164</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8">
+        <v>568593183</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="7">
+        <v>569241216</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="7">
+        <v>569356062</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="7">
+        <v>569367591</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="7">
+        <v>569447317</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16">
+        <v>569043532</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="7">
+        <v>568593692</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="7">
+        <v>569361525</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="7">
+        <v>569364020</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="F21" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="F23" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24">
+        <v>569364101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E26">
+        <v>569324797</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E27">
+        <v>569371846</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>257</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E28">
+        <v>569366214</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29">
+        <v>569370434</v>
+      </c>
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30">
+        <v>569369351</v>
+      </c>
+      <c r="F30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31">
+        <v>569120288</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34">
+        <v>569120288</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>292</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35">
+        <v>569337667</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36">
+        <v>569245627</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37">
+        <v>569243234</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38">
+        <v>568768514</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39">
+        <v>568464393</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40">
+        <v>569434163</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="F42" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8746E06D-9066-4AB1-88FF-53C05640A0A7}">
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -7127,7 +8417,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7188,7 +8478,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7204,7 +8494,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -7220,7 +8510,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7228,12 +8518,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="B16">
         <v>29</v>
@@ -7245,12 +8535,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
+      <UserInfo>
+        <DisplayName>Silver, Rebecca</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Barnes, Casey</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Turner, Heather</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7419,13 +8724,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7433,5 +8741,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
 </file>
--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EFC889-708D-489F-B66F-9C71A4C8030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90CC8B9-2D0B-4757-B31A-41381A094E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10018" r:id="rId5"/>
+    <pivotCache cacheId="10299" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="485">
   <si>
     <t>ID</t>
   </si>
@@ -1228,6 +1228,9 @@
     <t>Day</t>
   </si>
   <si>
+    <t>Room</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -1258,13 +1261,19 @@
     <t>13:30-13:45</t>
   </si>
   <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>RAD 33</t>
+  </si>
+  <si>
+    <t>Organising committee representatives</t>
+  </si>
+  <si>
+    <t>The University of Warwick</t>
+  </si>
+  <si>
     <t>Welcome to workshop and Warwick/campus, housekeeping</t>
-  </si>
-  <si>
-    <t>Organising committee representatives</t>
-  </si>
-  <si>
-    <t>The University of Warwick</t>
   </si>
   <si>
     <t>13:45-14:45</t>
@@ -1440,6 +1449,9 @@
     <t>Walkthrough 2</t>
   </si>
   <si>
+    <t>RAD 25</t>
+  </si>
+  <si>
     <t>09:30-9:40</t>
   </si>
   <si>
@@ -1480,6 +1492,9 @@
   </si>
   <si>
     <t>Marion Weinzierl, Mike Katell</t>
+  </si>
+  <si>
+    <t>Equality, Diversity, Inclusion</t>
   </si>
   <si>
     <t>Panel 2</t>
@@ -1495,7 +1510,7 @@
     <t>Focus session 6</t>
   </si>
   <si>
-    <t>What can R do (and is doing) for AI</t>
+    <t>What R can do (and is doing) for AI</t>
   </si>
   <si>
     <t>14:30-15:30</t>
@@ -3308,7 +3323,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="10018" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="10299" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6277,11 +6292,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FC7663-D29B-47D4-8AE2-312759209D09}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6289,18 +6304,19 @@
     <col min="1" max="1" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="92.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="7"/>
+    <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="92.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>367</v>
       </c>
@@ -6314,16 +6330,16 @@
         <v>368</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>371</v>
@@ -6334,1058 +6350,1178 @@
       <c r="K1" s="7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="L1" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6">
+        <v>568593183</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="7">
+        <v>569241216</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="7">
+        <v>569356062</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7">
+        <v>569367591</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="7">
+        <v>569447317</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13">
+        <v>569043532</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="7">
+        <v>568593692</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7">
+        <v>569361525</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="7">
+        <v>569364020</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G3" s="7" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6">
-        <v>568593183</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="E19" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19">
+        <v>569324797</v>
+      </c>
+      <c r="G19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E7" s="7">
-        <v>569241216</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E8" s="7">
-        <v>569356062</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="J19" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20">
+        <v>569371846</v>
+      </c>
+      <c r="G20" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21">
+        <v>569366214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="7">
-        <v>569367591</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="7">
-        <v>569447317</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13">
-        <v>569043532</v>
-      </c>
-      <c r="F13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="7">
-        <v>568593692</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="7">
-        <v>569361525</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="7">
-        <v>569364020</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E19">
-        <v>569324797</v>
-      </c>
-      <c r="F19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E20">
-        <v>569371846</v>
-      </c>
-      <c r="F20" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" t="s">
-        <v>257</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21">
-        <v>569366214</v>
-      </c>
-      <c r="F21" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22"/>
+      <c r="E22" s="9"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="H22"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23">
+        <v>569370434</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24">
+        <v>569369351</v>
+      </c>
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25">
+        <v>569120288</v>
+      </c>
+      <c r="G25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23">
-        <v>569370434</v>
-      </c>
-      <c r="F23" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24">
-        <v>569369351</v>
-      </c>
-      <c r="F24" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25">
-        <v>569120288</v>
-      </c>
-      <c r="F25" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" t="s">
-        <v>292</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>399</v>
-      </c>
       <c r="D26" s="9"/>
-      <c r="E26"/>
+      <c r="E26" s="9"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="H26"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27"/>
+      <c r="E27" s="9"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="H27"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28">
+        <v>569364101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>280</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29">
+        <v>569120288</v>
+      </c>
+      <c r="G29" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28">
-        <v>569364101</v>
-      </c>
-      <c r="F28" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29">
-        <v>569120288</v>
-      </c>
-      <c r="F29" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="B30" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30">
+        <v>441</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30">
         <v>569337667</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31">
+        <v>441</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31">
         <v>569245627</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>37</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
+    <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32">
+        <v>441</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32">
         <v>569243234</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>48</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33">
+        <v>441</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33">
         <v>568768514</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>56</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34">
+      <c r="D34" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34">
         <v>568464393</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>73</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35">
+        <v>441</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35">
         <v>569434163</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>82</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="I35" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1">
+        <v>447</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36"/>
+      <c r="E36" s="9"/>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1">
+      <c r="H36"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="F37" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+        <v>452</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="G37" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="F38" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1">
+        <v>455</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="G38" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39"/>
+      <c r="E39" s="9"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1">
+      <c r="H39"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D40" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>569338039</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>454</v>
-      </c>
       <c r="I40" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1">
+    <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D41" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F41" s="7">
         <v>568955164</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1">
+    <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="F42" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
+        <v>385</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="G42" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="B43" s="15">
         <v>0.64583333333333337</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43"/>
+        <v>463</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1">
+      <c r="H43"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44"/>
+      <c r="E44" s="9"/>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1">
+      <c r="H44"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45"/>
+      <c r="E45" s="9"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1">
+      <c r="H45"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1">
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46"/>
+      <c r="E46" s="9"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1">
+      <c r="H46"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1">
-      <c r="H48" s="13"/>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1">
+    <row r="48" spans="1:10" ht="15" customHeight="1">
+      <c r="I48" s="13"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="55" spans="2:10" ht="15" customHeight="1">
       <c r="C55" s="9"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1">
+      <c r="D55" s="9"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="58" spans="2:10" ht="15" customHeight="1">
       <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="2:10" ht="15" customHeight="1">
       <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="2:10" ht="15" customHeight="1">
       <c r="C60" s="9"/>
-    </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="64" spans="2:10" ht="15" customHeight="1">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-    </row>
-    <row r="69" spans="2:4" ht="15" customHeight="1">
+      <c r="E64" s="9"/>
+    </row>
+    <row r="69" spans="2:5" ht="15" customHeight="1">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-    </row>
-    <row r="73" spans="2:4" ht="15" customHeight="1">
+      <c r="E69" s="9"/>
+    </row>
+    <row r="73" spans="2:5" ht="15" customHeight="1">
       <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="2:4" ht="15" customHeight="1">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="2:5" ht="15" customHeight="1">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="2:4" ht="15" customHeight="1">
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="2:5" ht="15" customHeight="1">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-    </row>
-    <row r="76" spans="2:4" ht="15" customHeight="1">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="2:5" ht="15" customHeight="1">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="2:4" ht="15" customHeight="1">
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="2:5" ht="15" customHeight="1">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="2:4" ht="15" customHeight="1">
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="2:5" ht="15" customHeight="1">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-    </row>
-    <row r="85" spans="2:4" ht="15" customHeight="1">
+      <c r="E78" s="9"/>
+    </row>
+    <row r="85" spans="2:5" ht="15" customHeight="1">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-    </row>
-    <row r="87" spans="2:4" ht="15" customHeight="1">
+      <c r="E85" s="9"/>
+    </row>
+    <row r="87" spans="2:5" ht="15" customHeight="1">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -7429,86 +7565,86 @@
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>133</v>
@@ -7531,13 +7667,13 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>133</v>
@@ -7560,13 +7696,13 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>133</v>
@@ -7587,21 +7723,21 @@
         <v>68</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>388</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E9" s="7">
         <v>569241216</v>
@@ -7613,24 +7749,24 @@
         <v>190</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="E10" s="7">
         <v>569356062</v>
@@ -7642,61 +7778,61 @@
         <v>211</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>167</v>
@@ -7719,13 +7855,13 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>167</v>
@@ -7740,21 +7876,21 @@
         <v>273</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>167</v>
@@ -7769,21 +7905,21 @@
         <v>160</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>228</v>
@@ -7806,13 +7942,13 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>228</v>
@@ -7835,13 +7971,13 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>228</v>
@@ -7856,37 +7992,37 @@
         <v>241</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>131</v>
@@ -7894,43 +8030,43 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24">
@@ -7943,7 +8079,7 @@
         <v>90</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>284</v>
@@ -7951,28 +8087,28 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E26">
         <v>569324797</v>
@@ -7992,16 +8128,16 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E27">
         <v>569371846</v>
@@ -8021,16 +8157,16 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E28">
         <v>569366214</v>
@@ -8042,21 +8178,21 @@
         <v>266</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D29" t="s">
         <v>156</v>
@@ -8079,13 +8215,13 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>156</v>
@@ -8100,21 +8236,21 @@
         <v>181</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>156</v>
@@ -8129,45 +8265,45 @@
         <v>292</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
@@ -8180,21 +8316,21 @@
         <v>292</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35">
@@ -8215,13 +8351,13 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36">
@@ -8242,13 +8378,13 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37">
@@ -8269,13 +8405,13 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38">
@@ -8296,13 +8432,13 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>441</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39">
@@ -8323,13 +8459,13 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40">
@@ -8342,51 +8478,51 @@
         <v>84</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8417,7 +8553,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8518,12 +8654,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B16">
         <v>29</v>
@@ -8535,27 +8671,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
-      <UserInfo>
-        <DisplayName>Silver, Rebecca</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Barnes, Casey</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Turner, Heather</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8724,16 +8845,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
+      <UserInfo>
+        <DisplayName>Silver, Rebecca</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Barnes, Casey</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Turner, Heather</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8741,5 +8877,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
 </file>
--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90CC8B9-2D0B-4757-B31A-41381A094E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AC82AF-073F-47A4-B52C-665413D25FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applications!$A$1:$X$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Schedule_v2!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10299" r:id="rId5"/>
+    <pivotCache cacheId="10695" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="488">
   <si>
     <t>ID</t>
   </si>
@@ -1258,6 +1259,9 @@
     <t>Lunch</t>
   </si>
   <si>
+    <t>Meal will be served. Enjoy the food and the company!</t>
+  </si>
+  <si>
     <t>13:30-13:45</t>
   </si>
   <si>
@@ -1292,6 +1296,9 @@
   </si>
   <si>
     <t>Break  &amp; Poster Session 1</t>
+  </si>
+  <si>
+    <t>Some minutes for relaxing and networking. Poster's authors will be presenting their work.</t>
   </si>
   <si>
     <t>16:30-16:00</t>
@@ -1332,6 +1339,9 @@
   </si>
   <si>
     <t>Break</t>
+  </si>
+  <si>
+    <t>Some minutes for relaxing and networking</t>
   </si>
   <si>
     <t>19:00-20:00</t>
@@ -3323,7 +3333,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="10299" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="10695" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6295,8 +6305,8 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6364,28 +6374,31 @@
       <c r="C2" s="7" t="s">
         <v>377</v>
       </c>
+      <c r="J2" s="7" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>375</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
@@ -6393,22 +6406,22 @@
         <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
@@ -6416,10 +6429,13 @@
         <v>375</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
@@ -6427,16 +6443,16 @@
         <v>375</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F6">
         <v>568593183</v>
@@ -6454,7 +6470,7 @@
         <v>68</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
@@ -6462,16 +6478,16 @@
         <v>375</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F7" s="7">
         <v>569241216</v>
@@ -6483,10 +6499,10 @@
         <v>190</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
@@ -6494,16 +6510,16 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7">
         <v>569356062</v>
@@ -6515,10 +6531,10 @@
         <v>211</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
@@ -6526,10 +6542,13 @@
         <v>375</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
@@ -6537,24 +6556,27 @@
         <v>375</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>167</v>
@@ -6577,16 +6599,16 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>167</v>
@@ -6601,24 +6623,24 @@
         <v>273</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>167</v>
@@ -6633,35 +6655,38 @@
         <v>160</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>228</v>
@@ -6684,16 +6709,16 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>228</v>
@@ -6716,16 +6741,16 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>228</v>
@@ -6740,15 +6765,15 @@
         <v>241</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>376</v>
@@ -6756,22 +6781,25 @@
       <c r="C18" s="7" t="s">
         <v>377</v>
       </c>
+      <c r="J18" s="7" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F19">
         <v>569324797</v>
@@ -6791,19 +6819,19 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F20">
         <v>569371846</v>
@@ -6823,19 +6851,19 @@
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>422</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F21">
         <v>569366214</v>
@@ -6847,40 +6875,42 @@
         <v>266</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="7" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E23" t="s">
         <v>156</v>
@@ -6903,16 +6933,16 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>156</v>
@@ -6927,24 +6957,24 @@
         <v>181</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>156</v>
@@ -6959,58 +6989,62 @@
         <v>292</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="7" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="7" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28">
@@ -7023,7 +7057,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>284</v>
@@ -7031,16 +7065,16 @@
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29">
@@ -7053,24 +7087,24 @@
         <v>292</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30">
@@ -7091,16 +7125,16 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31">
@@ -7121,16 +7155,16 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32">
@@ -7151,16 +7185,16 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>441</v>
-      </c>
       <c r="D33" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33">
@@ -7181,16 +7215,16 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34">
@@ -7211,16 +7245,16 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35">
@@ -7233,74 +7267,76 @@
         <v>84</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="7" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E37" s="9"/>
       <c r="G37" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E38" s="9"/>
       <c r="G38" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>376</v>
@@ -7313,20 +7349,22 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="7" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>133</v>
@@ -7341,7 +7379,7 @@
         <v>108</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>129</v>
@@ -7349,16 +7387,16 @@
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>133</v>
@@ -7381,23 +7419,23 @@
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E42" s="9"/>
       <c r="G42" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
@@ -7405,10 +7443,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43"/>
@@ -7524,6 +7562,7 @@
       <c r="E87" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L43" xr:uid="{B6FC7663-D29B-47D4-8AE2-312759209D09}"/>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7602,10 +7641,10 @@
         <v>375</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -7613,19 +7652,19 @@
         <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -7633,7 +7672,7 @@
         <v>375</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -7641,10 +7680,10 @@
         <v>375</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>133</v>
@@ -7670,10 +7709,10 @@
         <v>375</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>133</v>
@@ -7699,10 +7738,10 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>133</v>
@@ -7723,7 +7762,7 @@
         <v>68</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -7731,13 +7770,13 @@
         <v>375</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E9" s="7">
         <v>569241216</v>
@@ -7749,10 +7788,10 @@
         <v>190</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -7760,13 +7799,13 @@
         <v>375</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E10" s="7">
         <v>569356062</v>
@@ -7778,10 +7817,10 @@
         <v>211</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -7789,17 +7828,17 @@
         <v>375</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -7807,10 +7846,10 @@
         <v>375</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -7818,21 +7857,21 @@
         <v>375</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>167</v>
@@ -7855,13 +7894,13 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>167</v>
@@ -7876,21 +7915,21 @@
         <v>273</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>167</v>
@@ -7905,21 +7944,21 @@
         <v>160</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>228</v>
@@ -7942,13 +7981,13 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>228</v>
@@ -7971,13 +8010,13 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>228</v>
@@ -7992,37 +8031,37 @@
         <v>241</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>131</v>
@@ -8030,43 +8069,43 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>479</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="D23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24">
@@ -8079,7 +8118,7 @@
         <v>90</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>284</v>
@@ -8087,28 +8126,28 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E26">
         <v>569324797</v>
@@ -8128,16 +8167,16 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E27">
         <v>569371846</v>
@@ -8157,16 +8196,16 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E28">
         <v>569366214</v>
@@ -8178,21 +8217,21 @@
         <v>266</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D29" t="s">
         <v>156</v>
@@ -8215,13 +8254,13 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>156</v>
@@ -8236,21 +8275,21 @@
         <v>181</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>156</v>
@@ -8265,45 +8304,45 @@
         <v>292</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
@@ -8316,21 +8355,21 @@
         <v>292</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35">
@@ -8351,13 +8390,13 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36">
@@ -8378,13 +8417,13 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37">
@@ -8405,13 +8444,13 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38">
@@ -8432,13 +8471,13 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39">
@@ -8459,13 +8498,13 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40">
@@ -8478,51 +8517,51 @@
         <v>84</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8553,7 +8592,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8654,12 +8693,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B16">
         <v>29</v>
@@ -8671,12 +8710,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
+      <UserInfo>
+        <DisplayName>Silver, Rebecca</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Barnes, Casey</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Turner, Heather</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8845,31 +8899,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
-      <UserInfo>
-        <DisplayName>Silver, Rebecca</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Barnes, Casey</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Turner, Heather</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8877,5 +8916,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
 </file>
--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AC82AF-073F-47A4-B52C-665413D25FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49E0829-1608-4F4E-A6BB-45208FCEFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10695" r:id="rId5"/>
+    <pivotCache cacheId="13216" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="487">
   <si>
     <t>ID</t>
   </si>
@@ -1289,7 +1289,13 @@
     <t>Martin O’Reilly</t>
   </si>
   <si>
-    <t>The Data Safe Haven</t>
+    <t>The Data Safe Haven: An open, scalable, reproducibly deployable, cloud-based Trusted Research Environment for working safely with sensitive data</t>
+  </si>
+  <si>
+    <t>Researchers often need to analyse sensitive data in order to answer important questions for health, government and society. Balancing the need to protect individual privacy and commercial confidentiality with the need to ensure that reliable insights can be made using sensitive data is challenging, and Trusted Research Environments (TREs) that provide secure analysis environments for working  with sensitive data are a key part of striking this balance.
+The Alan Turing Institute has recently open-sourced its Data Safe Haven, a secure, scalable, reproducibly deployable, cloud-based TRE that we have been using for the lat 4 years to support our researchers in working safely and productively with sensitive data. By openly publishing the code and documentation required to deploy, configure and manage a Data Safe Haven instance, we make it easier for others to deploy their own Trusted Research Environments, reducing the effort required to support their researchers in working safely with sensitive data.
+We've also been working closely with the wider community to better align work in this area, initially on the development of the information governance principals and design choices for our Data Safe Haven, which we published in 2019. More recently, we've been working closely with the DARE UK programme to define common requirements for Trusted Research Environments and have co-founded the RSE TRE Community, bringing together those who are developing and deploying TREs to more closely co-ordinate our work.
+In this talk we will give an overview of the Turing's Data Safe Haven and the information governance and design principals behind it, as well as the work we have been doing with the wider community to develop a common set of TRE requirements and to co-ordinate across organisations on the development, deployment and management of TREs.</t>
   </si>
   <si>
     <t>14:45-15:30</t>
@@ -1314,9 +1320,6 @@
   </si>
   <si>
     <t>16:00-16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting medical research and practice </t>
   </si>
   <si>
     <t>Statisticians embarking into the realm of Research Software Engineering</t>
@@ -1538,16 +1541,10 @@
     <t>Intro</t>
   </si>
   <si>
-    <t>The Data Safe Haven: An open, scalable, reproducibly deployable, cloud-based Trusted Research Environment for working safely with sensitive data</t>
-  </si>
-  <si>
-    <t>Researchers often need to analyse sensitive data in order to answer important questions for health, government and society. Balancing the need to protect individual privacy and commercial confidentiality with the need to ensure that reliable insights can be made using sensitive data is challenging, and Trusted Research Environments (TREs) that provide secure analysis environments for working  with sensitive data are a key part of striking this balance.
-The Alan Turing Institute has recently open-sourced its Data Safe Haven, a secure, scalable, reproducibly deployable, cloud-based TRE that we have been using for the lat 4 years to support our researchers in working safely and productively with sensitive data. By openly publishing the code and documentation required to deploy, configure and manage a Data Safe Haven instance, we make it easier for others to deploy their own Trusted Research Environments, reducing the effort required to support their researchers in working safely with sensitive data.
-We've also been working closely with the wider community to better align work in this area, initially on the development of the information governance principals and design choices for our Data Safe Haven, which we published in 2019. More recently, we've been working closely with the DARE UK programme to define common requirements for Trusted Research Environments and have co-founded the RSE TRE Community, bringing together those who are developing and deploying TREs to more closely co-ordinate our work.
-In this talk we will give an overview of the Turing's Data Safe Haven and the information governance and design principals behind it, as well as the work we have been doing with the wider community to develop a common set of TRE requirements and to co-ordinate across organisations on the development, deployment and management of TREs.</t>
-  </si>
-  <si>
     <t>17:00-17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting medical research and practice </t>
   </si>
   <si>
     <t>3rd talk  ID 568876112 dropped out</t>
@@ -3333,7 +3330,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="10695" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="13216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6305,8 +6302,8 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6420,8 +6417,11 @@
       <c r="H4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="13" t="s">
         <v>388</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
@@ -6429,13 +6429,13 @@
         <v>375</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
@@ -6443,16 +6443,16 @@
         <v>375</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>381</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F6">
         <v>568593183</v>
@@ -6470,7 +6470,7 @@
         <v>68</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
@@ -6478,16 +6478,16 @@
         <v>375</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>397</v>
+      <c r="E7" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="F7" s="7">
         <v>569241216</v>
@@ -6513,13 +6513,13 @@
         <v>400</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>397</v>
+      <c r="E8" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="F8" s="7">
         <v>569356062</v>
@@ -6936,7 +6936,7 @@
         <v>408</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>433</v>
@@ -7289,7 +7289,7 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="J36" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
@@ -7573,8 +7573,8 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -7661,10 +7661,10 @@
         <v>387</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>468</v>
+        <v>388</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>469</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -7680,10 +7680,10 @@
         <v>375</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>133</v>
@@ -7712,7 +7712,7 @@
         <v>400</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>133</v>
@@ -7738,10 +7738,10 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>133</v>
@@ -7762,7 +7762,7 @@
         <v>68</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -7770,13 +7770,13 @@
         <v>375</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="E9" s="7">
         <v>569241216</v>
@@ -7802,10 +7802,10 @@
         <v>400</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="E10" s="7">
         <v>569356062</v>
@@ -7828,17 +7828,17 @@
         <v>375</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -7846,7 +7846,7 @@
         <v>375</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>404</v>
@@ -7857,10 +7857,10 @@
         <v>375</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -7868,7 +7868,7 @@
         <v>408</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>410</v>
@@ -7897,7 +7897,7 @@
         <v>408</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>410</v>
@@ -7955,7 +7955,7 @@
         <v>408</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>410</v>
@@ -7984,7 +7984,7 @@
         <v>408</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>410</v>
@@ -8045,7 +8045,7 @@
         <v>417</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -8054,10 +8054,10 @@
         <v>408</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="D21" s="9"/>
       <c r="F21" s="7" t="s">
@@ -8072,10 +8072,10 @@
         <v>408</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>481</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -8084,10 +8084,10 @@
         <v>408</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D23" s="9"/>
       <c r="F23" s="10" t="s">
@@ -8105,7 +8105,7 @@
         <v>431</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24">
@@ -8132,7 +8132,7 @@
         <v>432</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -8141,7 +8141,7 @@
         <v>408</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>419</v>
@@ -8199,7 +8199,7 @@
         <v>408</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>419</v>
@@ -8228,7 +8228,7 @@
         <v>408</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>419</v>
@@ -8286,7 +8286,7 @@
         <v>408</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>419</v>
@@ -8315,10 +8315,10 @@
         <v>408</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -8327,10 +8327,10 @@
         <v>408</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -8342,7 +8342,7 @@
         <v>409</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
@@ -8531,7 +8531,7 @@
         <v>417</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -8540,7 +8540,7 @@
         <v>438</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>386</v>
@@ -8558,10 +8558,10 @@
         <v>438</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>481</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8592,7 +8592,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8693,12 +8693,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16">
         <v>29</v>
@@ -8710,30 +8710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
-      <UserInfo>
-        <DisplayName>Silver, Rebecca</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Barnes, Casey</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Turner, Heather</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010030B0E3D86AF8E94EB0D779FA2A578701" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a43da20c1e4d4a0fa4cb6e9a264adb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c1e5410-6003-4dcc-aaff-e929c276a0f6" xmlns:ns3="6d669ffc-f96f-45b1-8cef-205faefb68e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a33243bcbacded30e9c35f3ebd27a0f3" ns2:_="" ns3:_="">
     <xsd:import namespace="5c1e5410-6003-4dcc-aaff-e929c276a0f6"/>
@@ -8898,7 +8874,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8907,14 +8883,38 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
+      <UserInfo>
+        <DisplayName>Silver, Rebecca</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Barnes, Casey</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Turner, Heather</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBADE79-20BE-441D-93C8-2DC337480A5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBADE79-20BE-441D-93C8-2DC337480A5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
 </file>
--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49E0829-1608-4F4E-A6BB-45208FCEFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20024339-85EB-42ED-9C37-5691A5E0E2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26540" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="13216" r:id="rId5"/>
+    <pivotCache cacheId="543" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="489">
   <si>
     <t>ID</t>
   </si>
@@ -1504,10 +1504,10 @@
     <t>Panel 1</t>
   </si>
   <si>
-    <t>Marion Weinzierl, Mike Katell</t>
-  </si>
-  <si>
-    <t>Equality, Diversity, Inclusion</t>
+    <t>Tania Allard, Mike Katell, Malvika Sharan, Marion Weinzierl, Erin Young</t>
+  </si>
+  <si>
+    <t>Equality, Diversity, Inclusion, Accessibility</t>
   </si>
   <si>
     <t>Panel 2</t>
@@ -1523,7 +1523,10 @@
     <t>Focus session 6</t>
   </si>
   <si>
-    <t>What R can do (and is doing) for AI</t>
+    <t>Sustaining R to Support Research in Data and AI</t>
+  </si>
+  <si>
+    <t>N8 CIR: RSE, HPC, ML - all for one and one for all?</t>
   </si>
   <si>
     <t>14:30-15:30</t>
@@ -1572,6 +1575,9 @@
   </si>
   <si>
     <t>Panel</t>
+  </si>
+  <si>
+    <t>Marion Weinzierl, Mike Katell</t>
   </si>
   <si>
     <t>12:00-14:00</t>
@@ -1602,7 +1608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1780,6 +1786,15 @@
       <color rgb="FF242424"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2136,7 +2151,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2163,7 +2178,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3330,7 +3351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="13216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="543" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3736,22 +3757,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="J12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="101.28515625" bestFit="1" customWidth="1"/>
@@ -3760,7 +3782,7 @@
     <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="68.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="91.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -4079,7 +4101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1">
+    <row r="6" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A6">
         <v>568593183</v>
       </c>
@@ -4138,7 +4160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
+    <row r="7" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A7">
         <v>568464393</v>
       </c>
@@ -4250,7 +4272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1">
+    <row r="9" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A9">
         <v>569363634</v>
       </c>
@@ -4303,7 +4325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+    <row r="10" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A10">
         <v>569274184</v>
       </c>
@@ -4362,7 +4384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+    <row r="11" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A11">
         <v>568977035</v>
       </c>
@@ -4950,7 +4972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1">
+    <row r="20" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A20">
         <v>568876112</v>
       </c>
@@ -5086,7 +5108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1">
+    <row r="22" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A22">
         <v>568593692</v>
       </c>
@@ -5571,7 +5593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1">
+    <row r="29" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A29">
         <v>569364101</v>
       </c>
@@ -5642,7 +5664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1">
+    <row r="30" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A30">
         <v>569120288</v>
       </c>
@@ -5713,7 +5735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1">
+    <row r="31" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A31">
         <v>569367308</v>
       </c>
@@ -5772,7 +5794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1">
+    <row r="32" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A32">
         <v>569336598</v>
       </c>
@@ -5825,7 +5847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1">
+    <row r="33" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A33">
         <v>569051185</v>
       </c>
@@ -5884,7 +5906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1">
+    <row r="34" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A34">
         <v>569003202</v>
       </c>
@@ -5934,7 +5956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1">
+    <row r="35" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A35">
         <v>568874533</v>
       </c>
@@ -5987,7 +6009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1">
+    <row r="36" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A36">
         <v>568869679</v>
       </c>
@@ -6043,7 +6065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15" customHeight="1">
+    <row r="37" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A37">
         <v>568855570</v>
       </c>
@@ -6093,7 +6115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15" customHeight="1">
+    <row r="38" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A38">
         <v>568847102</v>
       </c>
@@ -6146,7 +6168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15" customHeight="1">
+    <row r="39" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A39">
         <v>568602080</v>
       </c>
@@ -6205,7 +6227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15" customHeight="1">
+    <row r="40" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A40">
         <v>568535453</v>
       </c>
@@ -6259,7 +6281,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X40" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="Lightning talks"/>
+        <filter val="Regular talk"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X40">
     <sortCondition ref="K2:K40"/>
   </sortState>
@@ -6303,18 +6332,17 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E8"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="28" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.140625" style="7" customWidth="1"/>
     <col min="9" max="9" width="92.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -6385,7 +6413,7 @@
       <c r="C3" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>381</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -6408,7 +6436,7 @@
       <c r="C4" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -6445,13 +6473,13 @@
       <c r="B6" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>395</v>
       </c>
       <c r="F6">
@@ -6480,13 +6508,13 @@
       <c r="B7" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>395</v>
       </c>
       <c r="F7" s="7">
@@ -6512,13 +6540,13 @@
       <c r="B8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>395</v>
       </c>
       <c r="F8" s="7">
@@ -6575,7 +6603,7 @@
       <c r="C11" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -6607,7 +6635,7 @@
       <c r="C12" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -6639,7 +6667,7 @@
       <c r="C13" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -6682,10 +6710,10 @@
       <c r="B15" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -6714,10 +6742,10 @@
       <c r="B16" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -6743,16 +6771,16 @@
       <c r="A17" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="15" t="s">
         <v>228</v>
       </c>
       <c r="F17" s="7">
@@ -6792,13 +6820,13 @@
       <c r="B19" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="15" t="s">
         <v>426</v>
       </c>
       <c r="F19">
@@ -6824,13 +6852,13 @@
       <c r="B20" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="15" t="s">
         <v>426</v>
       </c>
       <c r="F20">
@@ -6856,13 +6884,13 @@
       <c r="B21" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="15" t="s">
         <v>426</v>
       </c>
       <c r="F21">
@@ -6891,7 +6919,7 @@
       <c r="C22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="15"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
@@ -6906,10 +6934,10 @@
       <c r="B23" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E23" t="s">
@@ -6938,13 +6966,13 @@
       <c r="B24" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="15" t="s">
         <v>156</v>
       </c>
       <c r="F24">
@@ -6970,13 +6998,13 @@
       <c r="B25" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="15" t="s">
         <v>156</v>
       </c>
       <c r="F25">
@@ -7002,11 +7030,11 @@
       <c r="B26" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -7021,11 +7049,11 @@
       <c r="B27" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -7037,16 +7065,16 @@
       <c r="A28" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="15"/>
       <c r="F28">
         <v>569364101</v>
       </c>
@@ -7067,16 +7095,16 @@
       <c r="A29" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="15"/>
       <c r="F29">
         <v>569120288</v>
       </c>
@@ -7097,16 +7125,16 @@
       <c r="A30" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="15"/>
       <c r="F30">
         <v>569337667</v>
       </c>
@@ -7127,16 +7155,16 @@
       <c r="A31" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="15"/>
       <c r="F31">
         <v>569245627</v>
       </c>
@@ -7157,16 +7185,16 @@
       <c r="A32" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="15"/>
       <c r="F32">
         <v>569243234</v>
       </c>
@@ -7187,16 +7215,16 @@
       <c r="A33" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="15"/>
       <c r="F33">
         <v>568768514</v>
       </c>
@@ -7217,16 +7245,16 @@
       <c r="A34" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="15"/>
       <c r="F34">
         <v>568464393</v>
       </c>
@@ -7247,16 +7275,16 @@
       <c r="A35" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="15"/>
       <c r="F35">
         <v>569434163</v>
       </c>
@@ -7280,11 +7308,11 @@
       <c r="B36" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
@@ -7296,16 +7324,16 @@
       <c r="A37" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="15"/>
       <c r="G37" s="7" t="s">
         <v>456</v>
       </c>
@@ -7317,16 +7345,16 @@
       <c r="A38" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="15"/>
       <c r="G38" s="10" t="s">
         <v>459</v>
       </c>
@@ -7341,11 +7369,11 @@
       <c r="B39" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
@@ -7360,13 +7388,13 @@
       <c r="B40" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="15" t="s">
         <v>133</v>
       </c>
       <c r="F40" s="7">
@@ -7392,13 +7420,13 @@
       <c r="B41" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="15" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="7">
@@ -7411,7 +7439,7 @@
         <v>137</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>104</v>
+        <v>463</v>
       </c>
       <c r="J41" t="s">
         <v>140</v>
@@ -7422,148 +7450,147 @@
         <v>438</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C42" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="15"/>
       <c r="G42" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
-      <c r="B43" s="15">
+      <c r="B43" s="17">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="15"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="B47" s="8"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1">
       <c r="I48" s="13"/>
       <c r="J48" s="10"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
       <c r="J55" s="2"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="69" spans="2:5" ht="15" customHeight="1">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
     </row>
     <row r="73" spans="2:5" ht="15" customHeight="1">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="2:5" ht="15" customHeight="1">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="2:5" ht="15" customHeight="1">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="2:5" ht="15" customHeight="1">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="2:5" ht="15" customHeight="1">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="2:5" ht="15" customHeight="1">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="87" spans="2:5" ht="15" customHeight="1">
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L43" xr:uid="{B6FC7663-D29B-47D4-8AE2-312759209D09}"/>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7573,19 +7600,18 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="155.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="7" bestFit="1" customWidth="1"/>
@@ -7644,7 +7670,7 @@
         <v>427</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -7652,7 +7678,7 @@
         <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>386</v>
@@ -7738,7 +7764,7 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>394</v>
@@ -7776,7 +7802,7 @@
         <v>394</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E9" s="7">
         <v>569241216</v>
@@ -7805,7 +7831,7 @@
         <v>394</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E10" s="7">
         <v>569356062</v>
@@ -7828,17 +7854,17 @@
         <v>375</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -7846,7 +7872,7 @@
         <v>375</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>404</v>
@@ -7857,10 +7883,10 @@
         <v>375</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -7868,7 +7894,7 @@
         <v>408</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>410</v>
@@ -7897,7 +7923,7 @@
         <v>408</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>410</v>
@@ -7955,7 +7981,7 @@
         <v>408</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>410</v>
@@ -7984,7 +8010,7 @@
         <v>408</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>410</v>
@@ -8045,7 +8071,7 @@
         <v>417</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -8054,14 +8080,14 @@
         <v>408</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>131</v>
@@ -8072,10 +8098,10 @@
         <v>408</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -8084,10 +8110,10 @@
         <v>408</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D23" s="9"/>
       <c r="F23" s="10" t="s">
@@ -8105,7 +8131,7 @@
         <v>431</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24">
@@ -8132,7 +8158,7 @@
         <v>432</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -8199,7 +8225,7 @@
         <v>408</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>419</v>
@@ -8286,7 +8312,7 @@
         <v>408</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>419</v>
@@ -8315,10 +8341,10 @@
         <v>408</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -8327,10 +8353,10 @@
         <v>408</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -8342,7 +8368,7 @@
         <v>409</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
@@ -8531,7 +8557,7 @@
         <v>417</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -8540,17 +8566,17 @@
         <v>438</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>386</v>
       </c>
       <c r="D42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
@@ -8558,10 +8584,10 @@
         <v>438</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8592,7 +8618,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8693,12 +8719,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B16">
         <v>29</v>
@@ -8710,6 +8736,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
+      <UserInfo>
+        <DisplayName>Silver, Rebecca</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Barnes, Casey</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Turner, Heather</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010030B0E3D86AF8E94EB0D779FA2A578701" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a43da20c1e4d4a0fa4cb6e9a264adb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c1e5410-6003-4dcc-aaff-e929c276a0f6" xmlns:ns3="6d669ffc-f96f-45b1-8cef-205faefb68e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a33243bcbacded30e9c35f3ebd27a0f3" ns2:_="" ns3:_="">
     <xsd:import namespace="5c1e5410-6003-4dcc-aaff-e929c276a0f6"/>
@@ -8874,47 +8933,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
-      <UserInfo>
-        <DisplayName>Silver, Rebecca</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Barnes, Casey</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Turner, Heather</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBADE79-20BE-441D-93C8-2DC337480A5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96BB6B0-67E0-417D-88A6-CD80AF7E5A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBADE79-20BE-441D-93C8-2DC337480A5F}"/>
 </file>
--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20024339-85EB-42ED-9C37-5691A5E0E2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF59460-4EF7-466A-8B34-2C174DF8BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26540" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="493">
   <si>
     <t>ID</t>
   </si>
@@ -1438,6 +1438,9 @@
     <t>Focus session 5</t>
   </si>
   <si>
+    <t>Data versioning and distribution during the COVID-19 response</t>
+  </si>
+  <si>
     <t>Establishing a process for identifying mouse mutant lines with full datasets submitted to the Data Coordination Centre for the International Mouse Phenotyping Consortium</t>
   </si>
   <si>
@@ -1474,10 +1477,19 @@
     <t>09:40-09:50</t>
   </si>
   <si>
+    <t>Dual Layered Non-Parametric Supervised Learning</t>
+  </si>
+  <si>
     <t>09:50-10:00</t>
   </si>
   <si>
+    <t>Digital Biomarkers in the Minder Remote Dementia Care Platform</t>
+  </si>
+  <si>
     <t>10:00-10:10</t>
+  </si>
+  <si>
+    <t>Maintaining the UK National Neonatal Research longitudinal database</t>
   </si>
   <si>
     <t>10:10-10:20</t>
@@ -6331,8 +6343,8 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6953,7 +6965,7 @@
         <v>149</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>152</v>
@@ -6985,10 +6997,10 @@
         <v>181</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
@@ -7017,10 +7029,10 @@
         <v>292</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
@@ -7063,13 +7075,13 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>409</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>381</v>
@@ -7085,7 +7097,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>284</v>
@@ -7093,16 +7105,16 @@
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>409</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29">
@@ -7115,21 +7127,21 @@
         <v>292</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>381</v>
@@ -7153,13 +7165,13 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>445</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>444</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>381</v>
@@ -7175,7 +7187,7 @@
         <v>40</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>104</v>
+        <v>447</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>43</v>
@@ -7183,13 +7195,13 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>381</v>
@@ -7205,7 +7217,7 @@
         <v>50</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>104</v>
+        <v>449</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>53</v>
@@ -7213,13 +7225,13 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>381</v>
@@ -7235,7 +7247,7 @@
         <v>58</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>104</v>
+        <v>451</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>61</v>
@@ -7243,13 +7255,13 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>381</v>
@@ -7273,13 +7285,13 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>381</v>
@@ -7295,21 +7307,21 @@
         <v>84</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -7322,49 +7334,49 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E37" s="15"/>
       <c r="G37" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I37" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E38" s="15"/>
       <c r="G38" s="10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>376</v>
@@ -7383,13 +7395,13 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>424</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>381</v>
@@ -7407,7 +7419,7 @@
         <v>108</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>129</v>
@@ -7415,13 +7427,13 @@
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>381</v>
@@ -7439,7 +7451,7 @@
         <v>137</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J41" t="s">
         <v>140</v>
@@ -7447,10 +7459,10 @@
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>386</v>
@@ -7460,10 +7472,10 @@
       </c>
       <c r="E42" s="15"/>
       <c r="G42" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
@@ -7471,7 +7483,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>381</v>
@@ -7670,7 +7682,7 @@
         <v>427</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -7678,7 +7690,7 @@
         <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>386</v>
@@ -7764,7 +7776,7 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>394</v>
@@ -7802,7 +7814,7 @@
         <v>394</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E9" s="7">
         <v>569241216</v>
@@ -7831,7 +7843,7 @@
         <v>394</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E10" s="7">
         <v>569356062</v>
@@ -7854,17 +7866,17 @@
         <v>375</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -7872,7 +7884,7 @@
         <v>375</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>404</v>
@@ -7883,10 +7895,10 @@
         <v>375</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -7894,7 +7906,7 @@
         <v>408</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>410</v>
@@ -7923,7 +7935,7 @@
         <v>408</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>410</v>
@@ -7981,7 +7993,7 @@
         <v>408</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>410</v>
@@ -8010,7 +8022,7 @@
         <v>408</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>410</v>
@@ -8071,7 +8083,7 @@
         <v>417</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -8080,14 +8092,14 @@
         <v>408</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>131</v>
@@ -8098,10 +8110,10 @@
         <v>408</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -8110,17 +8122,17 @@
         <v>408</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="D23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
@@ -8131,7 +8143,7 @@
         <v>431</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24">
@@ -8144,7 +8156,7 @@
         <v>90</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>284</v>
@@ -8158,7 +8170,7 @@
         <v>432</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -8225,7 +8237,7 @@
         <v>408</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>419</v>
@@ -8301,10 +8313,10 @@
         <v>181</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
@@ -8312,7 +8324,7 @@
         <v>408</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>419</v>
@@ -8330,10 +8342,10 @@
         <v>292</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
@@ -8341,10 +8353,10 @@
         <v>408</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -8353,22 +8365,22 @@
         <v>408</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>409</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
@@ -8381,21 +8393,21 @@
         <v>292</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35">
@@ -8416,13 +8428,13 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>444</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36">
@@ -8443,13 +8455,13 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37">
@@ -8470,13 +8482,13 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38">
@@ -8497,13 +8509,13 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39">
@@ -8524,13 +8536,13 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40">
@@ -8543,51 +8555,51 @@
         <v>84</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>417</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>386</v>
       </c>
       <c r="D42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8618,7 +8630,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8719,12 +8731,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B16">
         <v>29</v>

--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF59460-4EF7-466A-8B34-2C174DF8BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A936A4CC-E5B4-4D65-9D19-0BFBBC5E73FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26540" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26540" windowHeight="15800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="543" r:id="rId5"/>
+    <pivotCache cacheId="5944" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="495">
   <si>
     <t>ID</t>
   </si>
@@ -1362,6 +1362,9 @@
     <t>Focus session 2</t>
   </si>
   <si>
+    <t>Wrangling Methodologies to aid Reproducible Research​</t>
+  </si>
+  <si>
     <t>09:30-10:00</t>
   </si>
   <si>
@@ -1410,6 +1413,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tools, software, and pipelines developed for applications in data &amp; AI </t>
+  </si>
+  <si>
+    <t>The London Air Quality Digital Twin: Ecological Modelling and Modular Software</t>
   </si>
   <si>
     <t>14:00-14:30</t>
@@ -3363,7 +3369,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="543" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="5944" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6343,8 +6349,8 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6631,7 +6637,7 @@
         <v>171</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>174</v>
@@ -6642,7 +6648,7 @@
         <v>408</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>410</v>
@@ -6663,10 +6669,10 @@
         <v>273</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
@@ -6674,7 +6680,7 @@
         <v>408</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>410</v>
@@ -6695,10 +6701,10 @@
         <v>160</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
@@ -6706,7 +6712,7 @@
         <v>408</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>404</v>
@@ -6720,10 +6726,10 @@
         <v>408</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>381</v>
@@ -6752,10 +6758,10 @@
         <v>408</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>419</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>381</v>
@@ -6784,10 +6790,10 @@
         <v>408</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>381</v>
@@ -6805,10 +6811,10 @@
         <v>241</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
@@ -6830,16 +6836,16 @@
         <v>408</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F19">
         <v>569324797</v>
@@ -6851,7 +6857,7 @@
         <v>108</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>104</v>
+        <v>428</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>251</v>
@@ -6862,16 +6868,16 @@
         <v>408</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F20">
         <v>569371846</v>
@@ -6894,16 +6900,16 @@
         <v>408</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F21">
         <v>569366214</v>
@@ -6915,10 +6921,10 @@
         <v>266</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
@@ -6926,7 +6932,7 @@
         <v>408</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>404</v>
@@ -6944,10 +6950,10 @@
         <v>408</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>381</v>
@@ -6965,7 +6971,7 @@
         <v>149</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>152</v>
@@ -6979,7 +6985,7 @@
         <v>397</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>381</v>
@@ -6997,10 +7003,10 @@
         <v>181</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
@@ -7011,7 +7017,7 @@
         <v>400</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>381</v>
@@ -7029,10 +7035,10 @@
         <v>292</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
@@ -7075,13 +7081,13 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>409</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>381</v>
@@ -7097,7 +7103,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>284</v>
@@ -7105,16 +7111,16 @@
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>409</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29">
@@ -7127,21 +7133,21 @@
         <v>292</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>381</v>
@@ -7165,13 +7171,13 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>381</v>
@@ -7187,7 +7193,7 @@
         <v>40</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>43</v>
@@ -7195,13 +7201,13 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>381</v>
@@ -7217,7 +7223,7 @@
         <v>50</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>53</v>
@@ -7225,13 +7231,13 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>381</v>
@@ -7247,7 +7253,7 @@
         <v>58</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>61</v>
@@ -7255,13 +7261,13 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>381</v>
@@ -7285,13 +7291,13 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>381</v>
@@ -7307,21 +7313,21 @@
         <v>84</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -7334,49 +7340,49 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E37" s="15"/>
       <c r="G37" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E38" s="15"/>
       <c r="G38" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>376</v>
@@ -7395,13 +7401,13 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>381</v>
@@ -7419,7 +7425,7 @@
         <v>108</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>129</v>
@@ -7427,13 +7433,13 @@
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>381</v>
@@ -7451,7 +7457,7 @@
         <v>137</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J41" t="s">
         <v>140</v>
@@ -7459,10 +7465,10 @@
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>386</v>
@@ -7472,10 +7478,10 @@
       </c>
       <c r="E42" s="15"/>
       <c r="G42" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
@@ -7483,7 +7489,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>381</v>
@@ -7679,10 +7685,10 @@
         <v>375</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -7690,7 +7696,7 @@
         <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>386</v>
@@ -7776,7 +7782,7 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>394</v>
@@ -7814,7 +7820,7 @@
         <v>394</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E9" s="7">
         <v>569241216</v>
@@ -7843,7 +7849,7 @@
         <v>394</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E10" s="7">
         <v>569356062</v>
@@ -7866,17 +7872,17 @@
         <v>375</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -7884,7 +7890,7 @@
         <v>375</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>404</v>
@@ -7895,10 +7901,10 @@
         <v>375</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -7906,7 +7912,7 @@
         <v>408</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>410</v>
@@ -7935,7 +7941,7 @@
         <v>408</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>410</v>
@@ -7953,10 +7959,10 @@
         <v>273</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -7964,7 +7970,7 @@
         <v>408</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>410</v>
@@ -7982,10 +7988,10 @@
         <v>160</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
@@ -7993,7 +7999,7 @@
         <v>408</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>410</v>
@@ -8022,7 +8028,7 @@
         <v>408</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>410</v>
@@ -8051,7 +8057,7 @@
         <v>408</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>410</v>
@@ -8069,10 +8075,10 @@
         <v>241</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
@@ -8080,10 +8086,10 @@
         <v>408</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -8092,14 +8098,14 @@
         <v>408</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>131</v>
@@ -8110,10 +8116,10 @@
         <v>408</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -8122,17 +8128,17 @@
         <v>408</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
@@ -8140,10 +8146,10 @@
         <v>408</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24">
@@ -8156,7 +8162,7 @@
         <v>90</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>284</v>
@@ -8167,10 +8173,10 @@
         <v>408</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -8182,10 +8188,10 @@
         <v>397</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E26">
         <v>569324797</v>
@@ -8211,10 +8217,10 @@
         <v>400</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E27">
         <v>569371846</v>
@@ -8237,13 +8243,13 @@
         <v>408</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E28">
         <v>569366214</v>
@@ -8255,10 +8261,10 @@
         <v>266</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
@@ -8269,7 +8275,7 @@
         <v>397</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D29" t="s">
         <v>156</v>
@@ -8298,7 +8304,7 @@
         <v>400</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>156</v>
@@ -8313,10 +8319,10 @@
         <v>181</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
@@ -8324,10 +8330,10 @@
         <v>408</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>156</v>
@@ -8342,10 +8348,10 @@
         <v>292</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
@@ -8353,10 +8359,10 @@
         <v>408</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -8365,22 +8371,22 @@
         <v>408</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>409</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
@@ -8393,21 +8399,21 @@
         <v>292</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35">
@@ -8428,13 +8434,13 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36">
@@ -8455,13 +8461,13 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37">
@@ -8482,13 +8488,13 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38">
@@ -8509,13 +8515,13 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39">
@@ -8536,13 +8542,13 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40">
@@ -8555,51 +8561,51 @@
         <v>84</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>386</v>
       </c>
       <c r="D42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8630,7 +8636,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8731,12 +8737,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B16">
         <v>29</v>

--- a/data/RSE Workshop Applications V2 RS.xlsx
+++ b/data/RSE Workshop Applications V2 RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac.sharepoint.com/sites/dataaiworkshop/Shared Documents/Programme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A936A4CC-E5B4-4D65-9D19-0BFBBC5E73FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5841702-2DB9-4573-BD55-30A1732CCBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26540" windowHeight="15800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5944" r:id="rId5"/>
+    <pivotCache cacheId="8572" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="496">
   <si>
     <t>ID</t>
   </si>
@@ -1314,6 +1314,9 @@
   </si>
   <si>
     <t>Data, Compute &amp; Analysis Infrastructure </t>
+  </si>
+  <si>
+    <t>Open Data Custodians: Open Data Governance in the Age of LLMs</t>
   </si>
   <si>
     <t>TBC: was a lightning talk</t>
@@ -3369,7 +3372,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="5944" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A790C9-6434-48BC-84C6-38AF212FD902}" name="Taula dinàmica1" cacheId="8572" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valors" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6349,8 +6352,8 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="I5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6510,13 +6513,13 @@
         <v>65</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>104</v>
+        <v>396</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
@@ -6524,7 +6527,7 @@
         <v>375</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>394</v>
@@ -6545,10 +6548,10 @@
         <v>190</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
@@ -6556,7 +6559,7 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>394</v>
@@ -6577,10 +6580,10 @@
         <v>211</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
@@ -6588,13 +6591,13 @@
         <v>375</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
@@ -6602,10 +6605,10 @@
         <v>375</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>378</v>
@@ -6613,13 +6616,13 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>381</v>
@@ -6637,7 +6640,7 @@
         <v>171</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>174</v>
@@ -6645,13 +6648,13 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>381</v>
@@ -6669,21 +6672,21 @@
         <v>273</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>381</v>
@@ -6701,35 +6704,35 @@
         <v>160</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>381</v>
@@ -6755,13 +6758,13 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>421</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>381</v>
@@ -6787,13 +6790,13 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>381</v>
@@ -6811,15 +6814,15 @@
         <v>241</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>376</v>
@@ -6833,19 +6836,19 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F19">
         <v>569324797</v>
@@ -6857,7 +6860,7 @@
         <v>108</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>251</v>
@@ -6865,19 +6868,19 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F20">
         <v>569371846</v>
@@ -6897,19 +6900,19 @@
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F21">
         <v>569366214</v>
@@ -6921,39 +6924,39 @@
         <v>266</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>381</v>
@@ -6971,7 +6974,7 @@
         <v>149</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>152</v>
@@ -6979,13 +6982,13 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>381</v>
@@ -7003,21 +7006,21 @@
         <v>181</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>381</v>
@@ -7035,21 +7038,21 @@
         <v>292</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -7057,18 +7060,18 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>408</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>407</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -7081,13 +7084,13 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>381</v>
@@ -7103,7 +7106,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>284</v>
@@ -7111,16 +7114,16 @@
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29">
@@ -7133,21 +7136,21 @@
         <v>292</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>381</v>
@@ -7171,13 +7174,13 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>448</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>447</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>381</v>
@@ -7193,7 +7196,7 @@
         <v>40</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>43</v>
@@ -7201,13 +7204,13 @@
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>381</v>
@@ -7223,7 +7226,7 @@
         <v>50</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>53</v>
@@ -7231,13 +7234,13 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>381</v>
@@ -7253,7 +7256,7 @@
         <v>58</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>61</v>
@@ -7261,13 +7264,13 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>381</v>
@@ -7291,13 +7294,13 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>381</v>
@@ -7313,21 +7316,21 @@
         <v>84</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -7340,49 +7343,49 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>381</v>
       </c>
       <c r="E37" s="15"/>
       <c r="G37" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I37" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E38" s="15"/>
       <c r="G38" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>376</v>
@@ -7401,13 +7404,13 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>381</v>
@@ -7425,7 +7428,7 @@
         <v>108</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>129</v>
@@ -7433,13 +7436,13 @@
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>381</v>
@@ -7457,7 +7460,7 @@
         <v>137</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J41" t="s">
         <v>140</v>
@@ -7465,10 +7468,10 @@
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>386</v>
@@ -7478,10 +7481,10 @@
       </c>
       <c r="E42" s="15"/>
       <c r="G42" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
@@ -7489,7 +7492,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>381</v>
@@ -7685,10 +7688,10 @@
         <v>375</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -7696,7 +7699,7 @@
         <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>386</v>
@@ -7716,7 +7719,7 @@
         <v>375</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -7724,7 +7727,7 @@
         <v>375</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>394</v>
@@ -7753,7 +7756,7 @@
         <v>375</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>394</v>
@@ -7782,7 +7785,7 @@
         <v>375</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>394</v>
@@ -7806,7 +7809,7 @@
         <v>68</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -7814,13 +7817,13 @@
         <v>375</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E9" s="7">
         <v>569241216</v>
@@ -7832,10 +7835,10 @@
         <v>190</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -7843,13 +7846,13 @@
         <v>375</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E10" s="7">
         <v>569356062</v>
@@ -7861,10 +7864,10 @@
         <v>211</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -7872,17 +7875,17 @@
         <v>375</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -7890,10 +7893,10 @@
         <v>375</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -7901,21 +7904,21 @@
         <v>375</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>167</v>
@@ -7938,13 +7941,13 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>167</v>
@@ -7959,21 +7962,21 @@
         <v>273</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>167</v>
@@ -7988,21 +7991,21 @@
         <v>160</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>228</v>
@@ -8025,13 +8028,13 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>228</v>
@@ -8054,13 +8057,13 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>228</v>
@@ -8075,37 +8078,37 @@
         <v>241</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>131</v>
@@ -8113,43 +8116,43 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24">
@@ -8162,7 +8165,7 @@
         <v>90</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>284</v>
@@ -8170,28 +8173,28 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E26">
         <v>569324797</v>
@@ -8211,16 +8214,16 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E27">
         <v>569371846</v>
@@ -8240,16 +8243,16 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E28">
         <v>569366214</v>
@@ -8261,21 +8264,21 @@
         <v>266</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D29" t="s">
         <v>156</v>
@@ -8298,13 +8301,13 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>156</v>
@@ -8319,21 +8322,21 @@
         <v>181</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>156</v>
@@ -8348,45 +8351,45 @@
         <v>292</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34">
@@ -8399,21 +8402,21 @@
         <v>292</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35">
@@ -8434,13 +8437,13 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36">
@@ -8461,13 +8464,13 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37">
@@ -8488,13 +8491,13 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38">
@@ -8515,13 +8518,13 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39">
@@ -8542,13 +8545,13 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40">
@@ -8561,51 +8564,51 @@
         <v>84</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>386</v>
       </c>
       <c r="D42" s="9"/>
       <c r="F42" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8636,7 +8639,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8737,12 +8740,12 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B16">
         <v>29</v>
@@ -8754,39 +8757,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
-      <UserInfo>
-        <DisplayName>Silver, Rebecca</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Barnes, Casey</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Turner, Heather</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010030B0E3D86AF8E94EB0D779FA2A578701" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a43da20c1e4d4a0fa4cb6e9a264adb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c1e5410-6003-4dcc-aaff-e929c276a0f6" xmlns:ns3="6d669ffc-f96f-45b1-8cef-205faefb68e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a33243bcbacded30e9c35f3ebd27a0f3" ns2:_="" ns3:_="">
     <xsd:import namespace="5c1e5410-6003-4dcc-aaff-e929c276a0f6"/>
@@ -8951,8 +8921,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="6d669ffc-f96f-45b1-8cef-205faefb68e0">
+      <UserInfo>
+        <DisplayName>Silver, Rebecca</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Barnes, Casey</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Turner, Heather</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBADE79-20BE-441D-93C8-2DC337480A5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8960,5 +8963,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBADE79-20BE-441D-93C8-2DC337480A5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AD4B4FE-F1B3-4850-A8E8-D27F8EC6450F}"/>
 </file>